--- a/xlsx/三明治_intext.xlsx
+++ b/xlsx/三明治_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="175">
   <si>
     <t>三明治</t>
   </si>
@@ -29,13 +29,13 @@
     <t>英文</t>
   </si>
   <si>
-    <t>政策_政策_美國_三明治</t>
+    <t>政策_政策_美国_三明治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%B5%E5%8C%85</t>
   </si>
   <si>
-    <t>麵包</t>
+    <t>面包</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%89</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%BF%E5%91%B3%E6%96%99</t>
   </si>
   <si>
-    <t>調味料</t>
+    <t>调味料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AC%E6%B1%81</t>
   </si>
   <si>
-    <t>醬汁</t>
+    <t>酱汁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%90%83</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%8B%89%E9%86%AC</t>
   </si>
   <si>
-    <t>沙拉醬</t>
+    <t>沙拉酱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B6%E6%B2%B9</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E7%94%9F%E9%86%AC</t>
   </si>
   <si>
-    <t>花生醬</t>
+    <t>花生酱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%88%E9%A4%90</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%A0%E8%B6%B3</t>
   </si>
   <si>
-    <t>遠足</t>
+    <t>远足</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E8%A1%8C</t>
@@ -125,25 +125,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%97%8F</t>
   </si>
   <si>
-    <t>貴族</t>
+    <t>贵族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%AD%9F%E5%A1%94%E5%8F%A4%EF%BC%8C%E7%AC%AC%E5%9B%9B%E4%BB%A3%E4%B8%89%E6%96%87%E6%B2%BB%E4%BC%AF%E7%88%B5</t>
   </si>
   <si>
-    <t>約翰·孟塔古，第四代三文治伯爵</t>
+    <t>约翰·孟塔古，第四代三文治伯爵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%8B%E7%89%8C</t>
   </si>
   <si>
-    <t>橋牌</t>
+    <t>桥牌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%88%B5</t>
@@ -173,13 +173,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>古英語</t>
+    <t>古英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E8%96%84%E9%A5%BC</t>
@@ -197,31 +197,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%A0%A1%E5%8C%85</t>
   </si>
   <si>
-    <t>漢堡包</t>
+    <t>汉堡包</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A0%AA%E7%9A%84%E7%B4%8D%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯堪的納維亞</t>
+    <t>斯堪的纳维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%9A</t>
   </si>
   <si>
-    <t>魚</t>
+    <t>鱼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90</t>
   </si>
   <si>
-    <t>北歐</t>
+    <t>北欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B2%81%E5%AE%BE%E4%B8%89%E6%98%8E%E6%B2%BB</t>
@@ -239,13 +239,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9B%E8%89%87%E4%B8%89%E6%98%8E%E6%B2%BB</t>
   </si>
   <si>
-    <t>潛艇三明治</t>
+    <t>潜艇三明治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E9%BA%B5%E5%8C%85</t>
   </si>
   <si>
-    <t>法國麵包</t>
+    <t>法国面包</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%A3%AB</t>
@@ -269,19 +269,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%B0</t>
   </si>
   <si>
-    <t>二戰</t>
+    <t>二战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>波士頓</t>
+    <t>波士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A1%E8%9B%8E%E7%A9%B7%E5%AD%A9%E5%84%BF%E4%B8%89%E6%98%8E%E6%B2%BB</t>
@@ -293,9 +293,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
@@ -305,9 +302,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A2%E5%8C%85</t>
   </si>
   <si>
-    <t>面包</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A1%E8%9B%8E</t>
   </si>
   <si>
@@ -317,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E</t>
   </si>
   <si>
-    <t>費城</t>
+    <t>费城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E8%82%89</t>
@@ -329,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%8B%E8%94%A5</t>
   </si>
   <si>
-    <t>洋蔥</t>
+    <t>洋葱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%91%E8%8F%87</t>
@@ -353,13 +347,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%85%99%E8%82%89</t>
   </si>
   <si>
-    <t>煙肉</t>
+    <t>烟肉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>蘇格蘭</t>
+    <t>苏格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E6%9C%9F%E5%A4%A9</t>
@@ -371,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%AF%E6%A2%9D</t>
   </si>
   <si>
-    <t>薯條</t>
+    <t>薯条</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E9%82%AE%E6%8A%A5</t>
@@ -383,13 +377,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A9%E9%A4%90%E5%BA%97</t>
@@ -401,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E8%8C%B6</t>
   </si>
   <si>
-    <t>紅茶</t>
+    <t>红茶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%BF%E5%88%A9%E5%95%86%E5%BA%97</t>
@@ -413,25 +407,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AC%E6%8E%92</t>
   </si>
   <si>
-    <t>豬排</t>
+    <t>猪排</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%9E%E6%8E%92</t>
   </si>
   <si>
-    <t>雞排</t>
+    <t>鸡排</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
+    <t>澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>俗語</t>
+    <t>俗语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
@@ -455,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8C%B6%E9%A4%90%E5%BB%B3</t>
   </si>
   <si>
-    <t>茶餐廳</t>
+    <t>茶餐厅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%8E%E8%9B%8B</t>
@@ -479,25 +473,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%97%E7%88%90</t>
   </si>
   <si>
-    <t>焗爐</t>
+    <t>焗炉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%94%B8%E9%AD%9A</t>
   </si>
   <si>
-    <t>沙甸魚</t>
+    <t>沙甸鱼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AC%E6%89%92%E5%8C%85</t>
   </si>
   <si>
-    <t>豬扒包</t>
+    <t>猪扒包</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E8%85%BF%E4%B8%89%E6%98%8E%E6%B2%BB%E5%AE%9A%E7%90%86</t>
@@ -509,13 +503,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8</t>
   </si>
   <si>
-    <t>數學</t>
+    <t>数学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>群島</t>
+    <t>群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7</t>
@@ -533,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -545,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2221,7 +2215,7 @@
         <v>91</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="G46" t="n">
         <v>6</v>
@@ -2247,10 +2241,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2276,10 +2270,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2305,10 +2299,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>3</v>
@@ -2334,10 +2328,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>3</v>
@@ -2363,10 +2357,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>5</v>
@@ -2392,10 +2386,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2421,10 +2415,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2450,10 +2444,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -2479,10 +2473,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2508,10 +2502,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2537,10 +2531,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2566,10 +2560,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2595,10 +2589,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2624,10 +2618,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2653,10 +2647,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -2682,10 +2676,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -2711,10 +2705,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -2740,10 +2734,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2769,10 +2763,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2798,10 +2792,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2827,10 +2821,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2856,10 +2850,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2885,10 +2879,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2914,10 +2908,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -2943,10 +2937,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>5</v>
@@ -2972,10 +2966,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>9</v>
@@ -3001,10 +2995,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -3030,10 +3024,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3059,10 +3053,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>5</v>
@@ -3088,10 +3082,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3117,10 +3111,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3146,10 +3140,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>5</v>
@@ -3175,10 +3169,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3204,10 +3198,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3233,10 +3227,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3262,10 +3256,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3291,10 +3285,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>4</v>
@@ -3320,10 +3314,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3349,10 +3343,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3378,10 +3372,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>3</v>
@@ -3407,10 +3401,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3436,10 +3430,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
